--- a/2 course/Networks/7/Graph-v20.xlsx
+++ b/2 course/Networks/7/Graph-v20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\Git\Study\2 course\Networks\Ivan\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\Git\Study\2 course\Networks\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>ІР-адрес мережі</t>
   </si>
@@ -63,6 +63,180 @@
   </si>
   <si>
     <t>228.219.147.254</t>
+  </si>
+  <si>
+    <t>17.124.16.162</t>
+  </si>
+  <si>
+    <t>17.124.0.0</t>
+  </si>
+  <si>
+    <t>255.255.192.0</t>
+  </si>
+  <si>
+    <t>17.124.0.1</t>
+  </si>
+  <si>
+    <t>17.124.63.254</t>
+  </si>
+  <si>
+    <t>17.124.63.255</t>
+  </si>
+  <si>
+    <t>Маска</t>
+  </si>
+  <si>
+    <t>Тип адреси</t>
+  </si>
+  <si>
+    <t>10.1.1.1</t>
+  </si>
+  <si>
+    <t>192.168.33.63</t>
+  </si>
+  <si>
+    <t>239.192.1.100</t>
+  </si>
+  <si>
+    <t>172.25.12.52</t>
+  </si>
+  <si>
+    <t>10.255.0.0</t>
+  </si>
+  <si>
+    <t>172.16.128.48</t>
+  </si>
+  <si>
+    <t>209.165.202.159</t>
+  </si>
+  <si>
+    <t>172.16.0.255</t>
+  </si>
+  <si>
+    <t>224.10.1.11</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.255.240 </t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.255.0 </t>
+  </si>
+  <si>
+    <t>Вузел</t>
+  </si>
+  <si>
+    <t>Мережа</t>
+  </si>
+  <si>
+    <t>Широкомовний</t>
+  </si>
+  <si>
+    <t>Багатоадресний</t>
+  </si>
+  <si>
+    <t>IP-адрес/префікс</t>
+  </si>
+  <si>
+    <t>Загальний/приватний</t>
+  </si>
+  <si>
+    <t>209.165.201.30/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.255.253/24 </t>
+  </si>
+  <si>
+    <t>10.100.11.103/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.30.1.100/28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.31.7.11/24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.20.18.150/22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.107.10.1/16 </t>
+  </si>
+  <si>
+    <t>192.135.250.10/24</t>
+  </si>
+  <si>
+    <t>64.104.0.11/16</t>
+  </si>
+  <si>
+    <t>Загальний</t>
+  </si>
+  <si>
+    <t>Приватний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допустима/недопустима адреса </t>
+  </si>
+  <si>
+    <t>Причина</t>
+  </si>
+  <si>
+    <t>127.1.0.10/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.16.255.0/16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">241.19.10.100/24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.254/24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.31.7.255/24 </t>
+  </si>
+  <si>
+    <t>64.102.255.255/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224.0.0.5/16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.255.255/8 </t>
+  </si>
+  <si>
+    <t>198.133.219.8/24</t>
+  </si>
+  <si>
+    <t>Допустима</t>
+  </si>
+  <si>
+    <t>Широкомовна адреса</t>
+  </si>
+  <si>
+    <t>Недопустима</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>Багатоадресна адреса</t>
   </si>
 </sst>
 </file>
@@ -72,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,15 +264,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +290,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,18 +325,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,21 +632,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -483,6 +696,291 @@
         <v>1022</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3">
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/2 course/Networks/7/Graph-v20.xlsx
+++ b/2 course/Networks/7/Graph-v20.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\Git\Study\2 course\Networks\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\PublicStudy\Study\2 course\Networks\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A39C6E-EEA8-43DB-9C93-D24C5D9F7345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -242,9 +243,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -312,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -320,12 +321,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,22 +355,25 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -729,257 +748,263 @@
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
